--- a/Result/Report.xlsx
+++ b/Result/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{DCA671DE-BAE3-4C4A-AC09-49D390FE5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBDE4A31-C4F1-49B5-BEF6-2CFB979D1421}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8D6B0C-1456-4E70-AFB9-D6B663561FC5}"/>
   <bookViews>
-    <workbookView xWindow="707" yWindow="707" windowWidth="24873" windowHeight="13093" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="727" yWindow="707" windowWidth="24873" windowHeight="13093" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -3108,13 +3108,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SWDDS.1.2.4.10</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.4.10_1</t>
-  </si>
-  <si>
-    <t>CheckSigRngBatVoltRngLow</t>
+    <t>SWDDS.1.2.4.3</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.4.3</t>
+  </si>
+  <si>
+    <t>CheckSigRngBatVolt</t>
   </si>
   <si>
     <t xml:space="preserve"> BaeHyeonHan</t>
@@ -3123,122 +3123,192 @@
     <t xml:space="preserve"> 2021-11-10</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Set the value(g_u16SigRngBatVoltLowCntClr, g_u16SigRngBatVoltLowCntSet, g_u32SigRngChkFlag, battery_voltage)all 0(min) to verify the coverage 
-2. Set the value(g_u16SigRngBatVoltLowCntClr) to verify boundary of conditional statement(=) of line 411._x000D_
-3. Set the value(g_u16SigRngBatVoltLowCntSet) to verify boundary of conditional statement(=) of line 415._x000D_
-4. Set the value(battery_voltage) to verify boundary of conditional statement(-1) of line 426._x000D_
-5. Set the value(battery_voltage) to verify boundary of conditional statement(=) of line 426._x000D_
- _x000D_
-6. Set the value(battery_voltage) to verify boundary of conditional statement(=) of line 436. 
-7. Set the value(battery_voltage) to verify boundary of conditional statement(+1) of line  436._x000D_
-8. Set the value(battery_voltage) to verify boundary of conditional statement(=) of line 436._x000D_
+    <t xml:space="preserve">1. Set the value(N/A) to verify the value 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase ID] SWUTS-F.1.2.4.10
-Goal : </t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.4.10_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set the value(g_u16SigRngBatVoltLowCntClr) to verify the coverage(F) of line 411._x000D_
-2. Set the value(g_u16SigRngBatVoltLowCntSet) to verify the coverage(F) of line 416._x000D_
-3. Set the value(g_u32SigRngChkFlag) to verify the coverage(F) of line 422._x000D_
-4. Set the value(g_u32SigRngChkFlag) to verify the coverage(T) of line 422._x000D_
-5. Set the value(battery_voltag) to verify the coverage(T) of line 428._x000D_
-6. Set the value(battery_voltag) to verify the coverage(F) of line 426_x000D_
-_x000D_
-7. Set the value(battery_voltag) to verify the coverage(F) of line 436_x000D_
-_x000D_
-8. Set the value(battery_voltag) to verify the coverage(T) of line 436_x000D_
-_x000D_
+    <t>TestCase ID] SWUTS-F.1.2.4.3
+Goal : Requirement Based Test among  Development of positive of SWDDS.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.4.6</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.4.6</t>
+  </si>
+  <si>
+    <t>CheckSigRngPcbTemp</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.4.6
+Goal : Requirement Based Test among  Development of positive of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.2.2</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.2.2</t>
+  </si>
+  <si>
+    <t>ClearDrvStaHoldCnt</t>
+  </si>
+  <si>
+    <t>apDrvSta.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(NA) to verify the value 
 </t>
   </si>
   <si>
-    <t>SWUTS-F.1.2.4.10_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set the value(g_u16SigRngBatVoltLowCntClr) to verify boundary of conditional statement(max+1) of line 411 
-2. Set the value(g_u16SigRngBatVoltLowCntSet) to verify boundary of conditional statement(max+1) of line 416 
+    <t>TestCase ID] SWUTS-F.1.2.2.2
+Goal : Requirement Based Test among  Development of positive of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.5</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.5</t>
+  </si>
+  <si>
+    <t>ConvertEopCtrSpdUnitToPu</t>
+  </si>
+  <si>
+    <t>apEopCtr.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(speed_rpm) to verify boundary of conditional statement(min) 
+2. Set the value(speed_rpm) to verify boundary of conditional statement(0) 
+3. Set the value(speed_rpm) to verify boundary of conditional statement(max) 
 </t>
   </si>
   <si>
-    <t>SWDDS.1.2.2.2</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.2</t>
-  </si>
-  <si>
-    <t>ClearDrvStaHoldCnt</t>
-  </si>
-  <si>
-    <t>apDrvSta.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1[*]. Create the test case to check statement coverage( or branch coverage) 
+    <t>TestCase ID] SWUTS-F.1.2.3.5
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>Analysis of boundary values</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.6</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.6</t>
+  </si>
+  <si>
+    <t>ConvertEopCtrSpdUnitToRpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(speed_pu) to verify boundary of conditional statement(min) 
+2. Set the value(speed_pu) to verify boundary of conditional statement(0) 
+3. Set the value(speed_pu) to verify boundary of conditional statement(max) 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase ID] SWUTS-F.1.2.2.2
-Goal : </t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>SWDDS.1.1.2.2</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.1.2.2</t>
-  </si>
-  <si>
-    <t>CtrSta_Chk</t>
-  </si>
-  <si>
-    <t>apCtrSta.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Create the test case to check statement coverage( or branch coverage). 
+    <t>TestCase ID] SWUTS-F.1.2.3.6
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.2.1</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.2.1</t>
+  </si>
+  <si>
+    <t>DrvSta_Init</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.2.1
+Goal : Requirement Based Test among  Development of positive of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.1</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.1</t>
+  </si>
+  <si>
+    <t>EopCtr_Init</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.1
+Goal : Requirement Based Test among  Development of positive of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.3</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.3</t>
+  </si>
+  <si>
+    <t>InitializeEopCtrSpdCtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(g_hndEopCtrSpdErrFilt) to verify boundary of conditional statement(min) 
+2. Set the value(g_hndEopCtrSpdErrFilt) to verify boundary of conditional statement(min) 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase ID] SWUTS-F.1.1.2.2
-Goal : </t>
-  </si>
-  <si>
-    <t>SWDDS.1.1.2.1</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.1.2.1</t>
-  </si>
-  <si>
-    <t>CtrSta_Init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase ID] SWUTS-F.1.1.2.1
-Goal : </t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.3.3</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.3.3</t>
-  </si>
-  <si>
-    <t>InitializeEopCtrSpdCtr</t>
-  </si>
-  <si>
-    <t>apEopCtr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set the value(g_hndEopCtrSpdErrFilt) to verify boundary of conditional statement(min) of line 458 
-2. Set the value(g_hndEopCtrSpdErrFilt) to verify boundary of conditional statement(max) of line 458 
+    <t>TestCase ID] SWUTS-F.1.2.3.3
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.2</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.2</t>
+  </si>
+  <si>
+    <t>InitializeEopCtrSpdProf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set vlaue(g_hndEopCtrCurFilt) to verify boundary of conditional statement(min) 
+2. Set vlaue(g_hndEopCtrCurFilt) to verify boundary of conditional statement(max) 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase ID] SWUTS-F.1.2.3.3
-Goal : </t>
+    <t>TestCase ID] SWUTS-F.1.2.3.2
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.17</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.17</t>
+  </si>
+  <si>
+    <t>SetEopCtrSpdCtrCurLmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(g_f16EopCtrCurLmtLow, g_f16EopCtrCurLmtUpp, g_hndEopCtrCurLmtUppRamp, g_hndEopCtrCurLmtLowRamp) to verify boundary of conditional statement(min) 
+2. Set the value(g_f16EopCtrCurLmtLow, g_f16EopCtrCurLmtUpp, g_hndEopCtrCurLmtUppRamp, g_hndEopCtrCurLmtLowRamp) to verify boundary of conditional statement(0) 
+3. Set the value(g_f16EopCtrCurLmtLow, g_f16EopCtrCurLmtUpp, g_hndEopCtrCurLmtUppRamp, g_hndEopCtrCurLmtLowRamp) to verify boundary of conditional statement(max) 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.17
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.4.2</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.4.2</t>
+  </si>
+  <si>
+    <t>SigRng_Chk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(g_u32SigRngChkFlag) to verify boundary of conditional statement(min) 
+2. Set the value(g_u32SigRngChkFlag) to verify boundary of conditional statement(max) 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.4.2
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
   </si>
 </sst>
 </file>
@@ -4770,8 +4840,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ADU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46:AA46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -5348,7 +5418,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R12" s="6" t="str">
         <f>IFERROR(S12/T12,"N/A")</f>
@@ -5547,7 +5617,7 @@
       <c r="ADQ12" s="3"/>
       <c r="ADU12" s="3"/>
     </row>
-    <row r="13" spans="2:801" s="2" customFormat="1" ht="260.35000000000002" thickTop="1">
+    <row r="13" spans="2:801" s="2" customFormat="1" ht="50.35" thickTop="1">
       <c r="B13" s="60" t="s">
         <v>95</v>
       </c>
@@ -5571,50 +5641,50 @@
       </c>
       <c r="I13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.10_1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="J13" s="66" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L13" s="59" t="s">
         <v>99</v>
       </c>
       <c r="M13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.10_1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="N13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.10_1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="O13" s="67" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="55"/>
       <c r="Q13" s="57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R13" s="58">
         <v>1</v>
       </c>
       <c r="S13" s="57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T13" s="57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U13" s="62"/>
-      <c r="V13" s="58">
-        <v>1</v>
-      </c>
-      <c r="W13" s="57">
-        <v>10</v>
-      </c>
-      <c r="X13" s="57">
-        <v>10</v>
+      <c r="V13" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="Y13" s="60"/>
       <c r="Z13" s="60" t="s">
@@ -5790,74 +5860,74 @@
       <c r="ADQ13" s="3"/>
       <c r="ADU13" s="3"/>
     </row>
-    <row r="14" spans="2:801" s="2" customFormat="1" ht="260">
+    <row r="14" spans="2:801" s="2" customFormat="1" ht="50">
       <c r="B14" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" ref="I14:I42" si="0">$B14&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.10_2.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L14" s="59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="10" t="str">
         <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.10_2.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="N14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.10_2.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="55"/>
       <c r="Q14" s="57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R14" s="58">
         <v>1</v>
       </c>
       <c r="S14" s="57">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T14" s="57">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U14" s="62"/>
-      <c r="V14" s="58">
-        <v>1</v>
-      </c>
-      <c r="W14" s="57">
-        <v>10</v>
-      </c>
-      <c r="X14" s="57">
-        <v>10</v>
+      <c r="V14" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60" t="s">
@@ -6033,74 +6103,74 @@
       <c r="ADQ14" s="3"/>
       <c r="ADU14" s="3"/>
     </row>
-    <row r="15" spans="2:801" s="2" customFormat="1" ht="65">
+    <row r="15" spans="2:801" s="2" customFormat="1" ht="50">
       <c r="B15" s="60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.4.10_3.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.10_3.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="N15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.10_3.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="55"/>
       <c r="Q15" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="58">
         <v>1</v>
       </c>
       <c r="S15" s="57">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="T15" s="57">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="U15" s="62"/>
-      <c r="V15" s="58">
-        <v>1</v>
-      </c>
-      <c r="W15" s="57">
-        <v>10</v>
-      </c>
-      <c r="X15" s="57">
-        <v>10</v>
+      <c r="V15" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X15" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="Y15" s="60"/>
       <c r="Z15" s="60" t="s">
@@ -6276,74 +6346,74 @@
       <c r="ADQ15" s="3"/>
       <c r="ADU15" s="3"/>
     </row>
-    <row r="16" spans="2:801" s="2" customFormat="1" ht="33.35">
+    <row r="16" spans="2:801" s="2" customFormat="1" ht="52">
       <c r="B16" s="60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="L16" s="59" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="55"/>
       <c r="Q16" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" s="58">
         <v>1</v>
       </c>
       <c r="S16" s="57">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="T16" s="57">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="U16" s="62"/>
       <c r="V16" s="58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W16" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X16" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="60"/>
       <c r="Z16" s="60" t="s">
@@ -6519,74 +6589,74 @@
       <c r="ADQ16" s="3"/>
       <c r="ADU16" s="3"/>
     </row>
-    <row r="17" spans="1:801" s="2" customFormat="1" ht="33.35">
+    <row r="17" spans="1:801" s="2" customFormat="1" ht="52">
       <c r="B17" s="60" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>115</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.1.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.1.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="N17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.1.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="55"/>
       <c r="Q17" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" s="58">
         <v>1</v>
       </c>
       <c r="S17" s="57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T17" s="57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U17" s="62"/>
       <c r="V17" s="58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W17" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X17" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Y17" s="60"/>
       <c r="Z17" s="60" t="s">
@@ -6762,49 +6832,49 @@
       <c r="ADQ17" s="3"/>
       <c r="ADU17" s="3"/>
     </row>
-    <row r="18" spans="1:801" s="8" customFormat="1" ht="33.35">
+    <row r="18" spans="1:801" s="8" customFormat="1" ht="50">
       <c r="A18" s="46"/>
       <c r="B18" s="60" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.1.2.1.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.1.2.1.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="N18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.1.2.1.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>60</v>
@@ -6813,24 +6883,24 @@
       <c r="Q18" s="57">
         <v>1</v>
       </c>
-      <c r="R18" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="T18" s="57" t="s">
-        <v>111</v>
+      <c r="R18" s="58">
+        <v>1</v>
+      </c>
+      <c r="S18" s="57">
+        <v>1</v>
+      </c>
+      <c r="T18" s="57">
+        <v>1</v>
       </c>
       <c r="U18" s="62"/>
       <c r="V18" s="58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W18" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X18" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60" t="s">
@@ -7006,75 +7076,75 @@
       <c r="ADQ18" s="12"/>
       <c r="ADU18" s="12"/>
     </row>
-    <row r="19" spans="1:801" s="8" customFormat="1" ht="65">
+    <row r="19" spans="1:801" s="8" customFormat="1" ht="50">
       <c r="A19" s="46"/>
       <c r="B19" s="60" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="55"/>
       <c r="Q19" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="58">
         <v>1</v>
       </c>
       <c r="S19" s="57">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T19" s="57">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U19" s="62"/>
       <c r="V19" s="58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X19" s="57" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="60"/>
       <c r="Z19" s="60" t="s">
@@ -7250,185 +7320,305 @@
       <c r="ADQ19" s="12"/>
       <c r="ADU19" s="12"/>
     </row>
-    <row r="20" spans="1:801">
+    <row r="20" spans="1:801" ht="50">
       <c r="A20" s="14"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="71"/>
+      <c r="B20" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>136</v>
+      </c>
       <c r="H20" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>135</v>
+      </c>
       <c r="M20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="N20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P20" s="55"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
+      <c r="Q20" s="57">
+        <v>2</v>
+      </c>
+      <c r="R20" s="58">
+        <v>1</v>
+      </c>
+      <c r="S20" s="57">
+        <v>14</v>
+      </c>
+      <c r="T20" s="57">
+        <v>14</v>
+      </c>
       <c r="U20" s="62"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
+      <c r="V20" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X20" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
+      <c r="Z20" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA20" s="63"/>
     </row>
-    <row r="21" spans="1:801">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="71"/>
+    <row r="21" spans="1:801" ht="50">
+      <c r="B21" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>141</v>
+      </c>
       <c r="H21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>140</v>
+      </c>
       <c r="M21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="N21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P21" s="55"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="Q21" s="57">
+        <v>2</v>
+      </c>
+      <c r="R21" s="58">
+        <v>1</v>
+      </c>
+      <c r="S21" s="57">
+        <v>11</v>
+      </c>
+      <c r="T21" s="57">
+        <v>11</v>
+      </c>
       <c r="U21" s="62"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
+      <c r="V21" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X21" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
+      <c r="Z21" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA21" s="63"/>
     </row>
-    <row r="22" spans="1:801">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="71"/>
+    <row r="22" spans="1:801" ht="130">
+      <c r="B22" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>146</v>
+      </c>
       <c r="H22" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>145</v>
+      </c>
       <c r="M22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P22" s="55"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
+      <c r="Q22" s="57">
+        <v>3</v>
+      </c>
+      <c r="R22" s="58">
+        <v>1</v>
+      </c>
+      <c r="S22" s="57">
+        <v>5</v>
+      </c>
+      <c r="T22" s="57">
+        <v>5</v>
+      </c>
       <c r="U22" s="62"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
+      <c r="V22" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X22" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
+      <c r="Z22" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA22" s="63"/>
     </row>
-    <row r="23" spans="1:801">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="71"/>
+    <row r="23" spans="1:801" ht="50">
+      <c r="B23" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>151</v>
+      </c>
       <c r="H23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>150</v>
+      </c>
       <c r="M23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P23" s="55"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
+      <c r="Q23" s="57">
+        <v>2</v>
+      </c>
+      <c r="R23" s="58">
+        <v>1</v>
+      </c>
+      <c r="S23" s="57">
+        <v>4</v>
+      </c>
+      <c r="T23" s="57">
+        <v>4</v>
+      </c>
       <c r="U23" s="62"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
+      <c r="V23" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="W23" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="X23" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
+      <c r="Z23" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA23" s="63"/>
     </row>
     <row r="24" spans="1:801">

--- a/Result/Report.xlsx
+++ b/Result/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8D6B0C-1456-4E70-AFB9-D6B663561FC5}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D61E8B6-A6DC-4CCB-929C-9BB4A440409E}"/>
   <bookViews>
     <workbookView xWindow="727" yWindow="707" windowWidth="24873" windowHeight="13093" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="177">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -3108,6 +3108,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>SWDDS.1.2.3.13</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.13_1</t>
+  </si>
+  <si>
+    <t>CheckEopCtrEnaMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaeHyeonHan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-11-10</t>
+  </si>
+  <si>
+    <t>apEopCtr.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(g_f16EopCtrRefSpd, target_rpm) to verify boundary of conditional statement(min) 
+2. Set the value(g_f16EopCtrRefSpd, target_rpm) to verify boundary of conditional statement(max) 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.13
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>Analysis of boundary values</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the stub function
+RteApp_ReadFuncMode
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.13_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(RteApp_ReadFuncMode=0) to verify coverage of line 643 
+2. Set the value(RteApp_ReadFuncMode=1) to verify coverage of line 643 
+3. Set the value(RteApp_ReadFuncMode=2) to verify coverage of line 643 
+4. Set the value(RteApp_ReadFuncMode=3) to verify coverage of line 643 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.13
+Goal : Requirement Based Test among Equivalence testing of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.7</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.7_1</t>
+  </si>
+  <si>
+    <t>CheckEopCtrEopStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(target_rpm) to verify boundary of conditional statement(min) 
+2. Set the value(target_rpm) to verify boundary of conditional statement(-1) of line 339 
+3. Set the value(target_rpm) to verify boundary of conditional statement(=) of line 339 
+4. Set the value(target_rpm) to verify boundary of conditional statement(max) 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.7
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.7_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(target_rpm) to verify coverage(T) of line 339 
+2. Set the value(target_rpm) to verify coverage(F) of line 339 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.7
+Goal : Requirement Based Test among Equivalence testing of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWDDS.1.2.3.8</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.8_1</t>
+  </si>
+  <si>
+    <t>CheckEopCtrTgtSpdChg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify boundary of conditional statement(min) 
+2. Set the value(target_rpm - g_s16EopCtrPrevTgtSpd = 5) to verify boundary of conditional statement(max) 
+3. Set the value(target_rpm - g_s16EopCtrPrevTgtSpd &lt; 5) to verify boundary of conditional statement(max) 
+4. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify boundary of conditional statement(max) 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.8
+Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+  </si>
+  <si>
+    <t>SWUTS-F.1.2.3.8_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify coverage(F) of line 376 
+2. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify coverage(T) of line 376 
+3. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify coverage(F) of line 376 
+4. Set the value(target_rpm, g_s16EopCtrPrevTgtSpd) to verify coverage(T) of line 376 
+</t>
+  </si>
+  <si>
+    <t>TestCase ID] SWUTS-F.1.2.3.8
+Goal : Requirement Based Test among Equivalence testing of SWDDS.</t>
+  </si>
+  <si>
     <t>SWDDS.1.2.4.3</t>
   </si>
   <si>
@@ -3115,12 +3232,6 @@
   </si>
   <si>
     <t>CheckSigRngBatVolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BaeHyeonHan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2021-11-10</t>
   </si>
   <si>
     <t xml:space="preserve">1. Set the value(N/A) to verify the value 
@@ -3174,9 +3285,6 @@
   </si>
   <si>
     <t>ConvertEopCtrSpdUnitToPu</t>
-  </si>
-  <si>
-    <t>apEopCtr.c</t>
   </si>
   <si>
     <t xml:space="preserve">1. Set the value(speed_rpm) to verify boundary of conditional statement(min) 
@@ -3187,10 +3295,6 @@
   <si>
     <t>TestCase ID] SWUTS-F.1.2.3.5
 Goal : Requirement Based Test among Analysis of boundary value of SWDDS.</t>
-  </si>
-  <si>
-    <t>Analysis of boundary values</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SWDDS.1.2.3.6</t>
@@ -5418,7 +5522,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R12" s="6" t="str">
         <f>IFERROR(S12/T12,"N/A")</f>
@@ -5617,7 +5721,7 @@
       <c r="ADQ12" s="3"/>
       <c r="ADU12" s="3"/>
     </row>
-    <row r="13" spans="2:801" s="2" customFormat="1" ht="50.35" thickTop="1">
+    <row r="13" spans="2:801" s="2" customFormat="1" ht="65.349999999999994" thickTop="1">
       <c r="B13" s="60" t="s">
         <v>95</v>
       </c>
@@ -5625,7 +5729,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>96</v>
@@ -5634,57 +5738,57 @@
         <v>97</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.3.xls</v>
+        <v>SWUTS-F.1.2.3.13_1.xls</v>
       </c>
       <c r="J13" s="66" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.3.xls</v>
+        <v>SWUTS-F.1.2.3.13_1.xls</v>
       </c>
       <c r="N13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.3.xls</v>
+        <v>SWUTS-F.1.2.3.13_1.xls</v>
       </c>
       <c r="O13" s="67" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="55"/>
       <c r="Q13" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="58">
         <v>1</v>
       </c>
       <c r="S13" s="57">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T13" s="57">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U13" s="62"/>
-      <c r="V13" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W13" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X13" s="57" t="s">
-        <v>101</v>
+      <c r="V13" s="58">
+        <v>1</v>
+      </c>
+      <c r="W13" s="57">
+        <v>4</v>
+      </c>
+      <c r="X13" s="57">
+        <v>4</v>
       </c>
       <c r="Y13" s="60"/>
       <c r="Z13" s="60" t="s">
@@ -5860,74 +5964,74 @@
       <c r="ADQ13" s="3"/>
       <c r="ADU13" s="3"/>
     </row>
-    <row r="14" spans="2:801" s="2" customFormat="1" ht="50">
+    <row r="14" spans="2:801" s="2" customFormat="1" ht="65">
       <c r="B14" s="60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" ref="I14:I42" si="0">$B14&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.6.xls</v>
+        <v>SWUTS-F.1.2.3.13_2.xls</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L14" s="59" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M14" s="10" t="str">
         <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
-        <v>SWUTS-F.1.2.4.6.xls</v>
+        <v>SWUTS-F.1.2.3.13_2.xls</v>
       </c>
       <c r="N14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.6.xls</v>
+        <v>SWUTS-F.1.2.3.13_2.xls</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="55"/>
       <c r="Q14" s="57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R14" s="58">
         <v>1</v>
       </c>
       <c r="S14" s="57">
+        <v>19</v>
+      </c>
+      <c r="T14" s="57">
+        <v>19</v>
+      </c>
+      <c r="U14" s="62"/>
+      <c r="V14" s="58">
+        <v>1</v>
+      </c>
+      <c r="W14" s="57">
         <v>4</v>
       </c>
-      <c r="T14" s="57">
+      <c r="X14" s="57">
         <v>4</v>
-      </c>
-      <c r="U14" s="62"/>
-      <c r="V14" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W14" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X14" s="57" t="s">
-        <v>101</v>
       </c>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60" t="s">
@@ -6103,18 +6207,18 @@
       <c r="ADQ14" s="3"/>
       <c r="ADU14" s="3"/>
     </row>
-    <row r="15" spans="2:801" s="2" customFormat="1" ht="50">
+    <row r="15" spans="2:801" s="2" customFormat="1" ht="65">
       <c r="B15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>109</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>97</v>
@@ -6127,50 +6231,50 @@
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.7_1.xls</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.7_1.xls</v>
       </c>
       <c r="N15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.2.xls</v>
+        <v>SWUTS-F.1.2.3.7_1.xls</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="55"/>
       <c r="Q15" s="57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" s="58">
         <v>1</v>
       </c>
       <c r="S15" s="57">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="T15" s="57">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="U15" s="62"/>
-      <c r="V15" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W15" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X15" s="57" t="s">
-        <v>101</v>
+      <c r="V15" s="58">
+        <v>1</v>
+      </c>
+      <c r="W15" s="57">
+        <v>2</v>
+      </c>
+      <c r="X15" s="57">
+        <v>2</v>
       </c>
       <c r="Y15" s="60"/>
       <c r="Z15" s="60" t="s">
@@ -6346,74 +6450,74 @@
       <c r="ADQ15" s="3"/>
       <c r="ADU15" s="3"/>
     </row>
-    <row r="16" spans="2:801" s="2" customFormat="1" ht="52">
+    <row r="16" spans="2:801" s="2" customFormat="1" ht="39">
       <c r="B16" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.5.xls</v>
+        <v>SWUTS-F.1.2.3.7_2.xls</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="L16" s="59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.5.xls</v>
+        <v>SWUTS-F.1.2.3.7_2.xls</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.5.xls</v>
+        <v>SWUTS-F.1.2.3.7_2.xls</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="55"/>
       <c r="Q16" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="58">
         <v>1</v>
       </c>
       <c r="S16" s="57">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T16" s="57">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U16" s="62"/>
-      <c r="V16" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W16" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X16" s="57" t="s">
-        <v>101</v>
+      <c r="V16" s="58">
+        <v>1</v>
+      </c>
+      <c r="W16" s="57">
+        <v>2</v>
+      </c>
+      <c r="X16" s="57">
+        <v>2</v>
       </c>
       <c r="Y16" s="60"/>
       <c r="Z16" s="60" t="s">
@@ -6589,74 +6693,74 @@
       <c r="ADQ16" s="3"/>
       <c r="ADU16" s="3"/>
     </row>
-    <row r="17" spans="1:801" s="2" customFormat="1" ht="52">
+    <row r="17" spans="1:801" s="2" customFormat="1" ht="117">
       <c r="B17" s="60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.6.xls</v>
+        <v>SWUTS-F.1.2.3.8_1.xls</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.6.xls</v>
+        <v>SWUTS-F.1.2.3.8_1.xls</v>
       </c>
       <c r="N17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.6.xls</v>
+        <v>SWUTS-F.1.2.3.8_1.xls</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="55"/>
       <c r="Q17" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="58">
         <v>1</v>
       </c>
       <c r="S17" s="57">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T17" s="57">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U17" s="62"/>
-      <c r="V17" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X17" s="57" t="s">
-        <v>101</v>
+      <c r="V17" s="58">
+        <v>1</v>
+      </c>
+      <c r="W17" s="57">
+        <v>2</v>
+      </c>
+      <c r="X17" s="57">
+        <v>2</v>
       </c>
       <c r="Y17" s="60"/>
       <c r="Z17" s="60" t="s">
@@ -6832,75 +6936,75 @@
       <c r="ADQ17" s="3"/>
       <c r="ADU17" s="3"/>
     </row>
-    <row r="18" spans="1:801" s="8" customFormat="1" ht="50">
+    <row r="18" spans="1:801" s="8" customFormat="1" ht="65">
       <c r="A18" s="46"/>
       <c r="B18" s="60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.1.xls</v>
+        <v>SWUTS-F.1.2.3.8_2.xls</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.1.xls</v>
+        <v>SWUTS-F.1.2.3.8_2.xls</v>
       </c>
       <c r="N18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.2.1.xls</v>
+        <v>SWUTS-F.1.2.3.8_2.xls</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P18" s="55"/>
       <c r="Q18" s="57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" s="58">
         <v>1</v>
       </c>
       <c r="S18" s="57">
+        <v>13</v>
+      </c>
+      <c r="T18" s="57">
+        <v>13</v>
+      </c>
+      <c r="U18" s="62"/>
+      <c r="V18" s="58">
         <v>1</v>
       </c>
-      <c r="T18" s="57">
-        <v>1</v>
-      </c>
-      <c r="U18" s="62"/>
-      <c r="V18" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="W18" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="X18" s="57" t="s">
-        <v>101</v>
+      <c r="W18" s="57">
+        <v>2</v>
+      </c>
+      <c r="X18" s="57">
+        <v>2</v>
       </c>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60" t="s">
@@ -7079,29 +7183,29 @@
     <row r="19" spans="1:801" s="8" customFormat="1" ht="50">
       <c r="A19" s="46"/>
       <c r="B19" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>58</v>
@@ -7110,15 +7214,15 @@
         <v>49</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="N19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.1.xls</v>
+        <v>SWUTS-F.1.2.4.3.xls</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>60</v>
@@ -7131,20 +7235,20 @@
         <v>1</v>
       </c>
       <c r="S19" s="57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T19" s="57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U19" s="62"/>
       <c r="V19" s="58" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="X19" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Y19" s="60"/>
       <c r="Z19" s="60" t="s">
@@ -7323,72 +7427,72 @@
     <row r="20" spans="1:801" ht="50">
       <c r="A20" s="14"/>
       <c r="B20" s="60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="L20" s="59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="N20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.3.xls</v>
+        <v>SWUTS-F.1.2.4.6.xls</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P20" s="55"/>
       <c r="Q20" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="58">
         <v>1</v>
       </c>
       <c r="S20" s="57">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T20" s="57">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U20" s="62"/>
       <c r="V20" s="58" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="W20" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="X20" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="60"/>
       <c r="Z20" s="60" t="s">
@@ -7398,72 +7502,72 @@
     </row>
     <row r="21" spans="1:801" ht="50">
       <c r="B21" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F21" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.2.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="L21" s="59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.2.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="N21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.2.xls</v>
+        <v>SWUTS-F.1.2.2.2.xls</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P21" s="55"/>
       <c r="Q21" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="58">
         <v>1</v>
       </c>
       <c r="S21" s="57">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T21" s="57">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U21" s="62"/>
       <c r="V21" s="58" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="W21" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="X21" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="60"/>
       <c r="Z21" s="60" t="s">
@@ -7471,48 +7575,48 @@
       </c>
       <c r="AA21" s="63"/>
     </row>
-    <row r="22" spans="1:801" ht="130">
+    <row r="22" spans="1:801" ht="52">
       <c r="B22" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.3.17.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L22" s="59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.17.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="N22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.3.17.xls</v>
+        <v>SWUTS-F.1.2.3.5.xls</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>60</v>
@@ -7525,20 +7629,20 @@
         <v>1</v>
       </c>
       <c r="S22" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22" s="62"/>
       <c r="V22" s="58" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="W22" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="X22" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Y22" s="60"/>
       <c r="Z22" s="60" t="s">
@@ -7546,55 +7650,55 @@
       </c>
       <c r="AA22" s="63"/>
     </row>
-    <row r="23" spans="1:801" ht="50">
+    <row r="23" spans="1:801" ht="52">
       <c r="B23" s="60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.4.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L23" s="59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="N23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SWUTS-F.1.2.4.2.xls</v>
+        <v>SWUTS-F.1.2.3.6.xls</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P23" s="55"/>
       <c r="Q23" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" s="58">
         <v>1</v>
@@ -7607,13 +7711,13 @@
       </c>
       <c r="U23" s="62"/>
       <c r="V23" s="58" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="W23" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="X23" s="57" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60" t="s">
@@ -7621,274 +7725,454 @@
       </c>
       <c r="AA23" s="63"/>
     </row>
-    <row r="24" spans="1:801">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="71"/>
+    <row r="24" spans="1:801" ht="50">
+      <c r="B24" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>152</v>
+      </c>
       <c r="H24" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="59"/>
+        <v>49</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>137</v>
+      </c>
       <c r="M24" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="N24" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.2.1.xls</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P24" s="55"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="Q24" s="57">
+        <v>1</v>
+      </c>
+      <c r="R24" s="58">
+        <v>1</v>
+      </c>
+      <c r="S24" s="57">
+        <v>1</v>
+      </c>
+      <c r="T24" s="57">
+        <v>1</v>
+      </c>
       <c r="U24" s="62"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
+      <c r="V24" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W24" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
+      <c r="Z24" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA24" s="63"/>
     </row>
-    <row r="25" spans="1:801">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="71"/>
+    <row r="25" spans="1:801" ht="50">
+      <c r="B25" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>156</v>
+      </c>
       <c r="H25" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="59"/>
+        <v>49</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>137</v>
+      </c>
       <c r="M25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="N25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.1.xls</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P25" s="55"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
+      <c r="Q25" s="57">
+        <v>1</v>
+      </c>
+      <c r="R25" s="58">
+        <v>1</v>
+      </c>
+      <c r="S25" s="57">
+        <v>2</v>
+      </c>
+      <c r="T25" s="57">
+        <v>2</v>
+      </c>
       <c r="U25" s="62"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
+      <c r="V25" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X25" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
+      <c r="Z25" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA25" s="63"/>
     </row>
-    <row r="26" spans="1:801">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="71"/>
+    <row r="26" spans="1:801" ht="50">
+      <c r="B26" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>161</v>
+      </c>
       <c r="H26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>160</v>
+      </c>
       <c r="M26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="N26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.3.xls</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P26" s="55"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+      <c r="Q26" s="57">
+        <v>2</v>
+      </c>
+      <c r="R26" s="58">
+        <v>1</v>
+      </c>
+      <c r="S26" s="57">
+        <v>14</v>
+      </c>
+      <c r="T26" s="57">
+        <v>14</v>
+      </c>
       <c r="U26" s="62"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
+      <c r="V26" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W26" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X26" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
+      <c r="Z26" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA26" s="63"/>
     </row>
-    <row r="27" spans="1:801">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="71"/>
+    <row r="27" spans="1:801" ht="50">
+      <c r="B27" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>166</v>
+      </c>
       <c r="H27" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>165</v>
+      </c>
       <c r="M27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="N27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.2.xls</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P27" s="55"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
+      <c r="Q27" s="57">
+        <v>2</v>
+      </c>
+      <c r="R27" s="58">
+        <v>1</v>
+      </c>
+      <c r="S27" s="57">
+        <v>11</v>
+      </c>
+      <c r="T27" s="57">
+        <v>11</v>
+      </c>
       <c r="U27" s="62"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="V27" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W27" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X27" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
+      <c r="Z27" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA27" s="63"/>
     </row>
-    <row r="28" spans="1:801">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="71"/>
+    <row r="28" spans="1:801" ht="130">
+      <c r="B28" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>171</v>
+      </c>
       <c r="H28" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>170</v>
+      </c>
       <c r="M28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="N28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.3.17.xls</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P28" s="55"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
+      <c r="Q28" s="57">
+        <v>3</v>
+      </c>
+      <c r="R28" s="58">
+        <v>1</v>
+      </c>
+      <c r="S28" s="57">
+        <v>5</v>
+      </c>
+      <c r="T28" s="57">
+        <v>5</v>
+      </c>
       <c r="U28" s="62"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
+      <c r="V28" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W28" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X28" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
+      <c r="Z28" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA28" s="63"/>
     </row>
-    <row r="29" spans="1:801">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="71"/>
+    <row r="29" spans="1:801" ht="50">
+      <c r="B29" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>176</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>175</v>
+      </c>
       <c r="M29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="N29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>.xls</v>
+        <v>SWUTS-F.1.2.4.2.xls</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P29" s="55"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
+      <c r="Q29" s="57">
+        <v>2</v>
+      </c>
+      <c r="R29" s="58">
+        <v>1</v>
+      </c>
+      <c r="S29" s="57">
+        <v>4</v>
+      </c>
+      <c r="T29" s="57">
+        <v>4</v>
+      </c>
       <c r="U29" s="62"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
+      <c r="V29" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="W29" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="X29" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
+      <c r="Z29" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="AA29" s="63"/>
     </row>
     <row r="30" spans="1:801">
